--- a/totaalstand_TEAL1_TEAL5.xlsx
+++ b/totaalstand_TEAL1_TEAL5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,29 +491,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Burger Peach</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3484</v>
+        <v>7345</v>
       </c>
       <c r="G2" t="n">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="H2" t="n">
-        <v>57.75</v>
+        <v>64.62</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -525,11 +525,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -538,19 +538,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5207</v>
+        <v>6777</v>
       </c>
       <c r="G3" t="n">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="H3" t="n">
-        <v>46.22</v>
+        <v>54.95</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,31 +559,201 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Rocky Van Den Eeckhoudt</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>429</v>
+      </c>
+      <c r="H4" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Niels van Dommelen</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9695</v>
+      </c>
+      <c r="G5" t="n">
+        <v>583</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lukas G</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5294</v>
+      </c>
+      <c r="G6" t="n">
+        <v>283</v>
+      </c>
+      <c r="H6" t="n">
+        <v>56.12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nigel Riedel</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2695</v>
+      </c>
+      <c r="G7" t="n">
+        <v>155</v>
+      </c>
+      <c r="H7" t="n">
+        <v>52.16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Noah B</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2647</v>
+      </c>
+      <c r="G8" t="n">
+        <v>193</v>
+      </c>
+      <c r="H8" t="n">
+        <v>41.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Sion Foulkes</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2365</v>
-      </c>
-      <c r="G4" t="n">
-        <v>157</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45.19</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3708</v>
+      </c>
+      <c r="G9" t="n">
+        <v>247</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_TEAL1_TEAL5.xlsx
+++ b/totaalstand_TEAL1_TEAL5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,28 +495,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>7345</v>
+        <v>17293</v>
       </c>
       <c r="G2" t="n">
-        <v>341</v>
+        <v>796</v>
       </c>
       <c r="H2" t="n">
-        <v>64.62</v>
+        <v>65.17</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6777</v>
+        <v>11319</v>
       </c>
       <c r="G3" t="n">
-        <v>370</v>
+        <v>619</v>
       </c>
       <c r="H3" t="n">
-        <v>54.95</v>
+        <v>54.86</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -559,29 +559,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8003</v>
+        <v>13810</v>
       </c>
       <c r="G4" t="n">
-        <v>429</v>
+        <v>794</v>
       </c>
       <c r="H4" t="n">
-        <v>55.97</v>
+        <v>52.18</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -593,29 +593,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9695</v>
+        <v>8568</v>
       </c>
       <c r="G5" t="n">
-        <v>583</v>
+        <v>401</v>
       </c>
       <c r="H5" t="n">
-        <v>49.89</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -627,29 +627,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lukas G</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
-        <v>5294</v>
+        <v>11777</v>
       </c>
       <c r="G6" t="n">
-        <v>283</v>
+        <v>619</v>
       </c>
       <c r="H6" t="n">
-        <v>56.12</v>
+        <v>57.08</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -661,11 +661,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nigel Riedel</t>
+          <t>Sion Foulkes</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -674,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2695</v>
+        <v>5404</v>
       </c>
       <c r="G7" t="n">
-        <v>155</v>
+        <v>367</v>
       </c>
       <c r="H7" t="n">
-        <v>52.16</v>
+        <v>44.17</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -695,29 +695,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Lukas G</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2647</v>
+        <v>5294</v>
       </c>
       <c r="G8" t="n">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="H8" t="n">
-        <v>41.15</v>
+        <v>56.12</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,31 +729,165 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sion Foulkes</t>
+          <t>Constantinos Mavroudis</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1991</v>
+      </c>
+      <c r="G9" t="n">
+        <v>134</v>
+      </c>
+      <c r="H9" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nigel Riedel</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3708</v>
-      </c>
-      <c r="G9" t="n">
-        <v>247</v>
-      </c>
-      <c r="H9" t="n">
-        <v>45.04</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4425</v>
+      </c>
+      <c r="G10" t="n">
+        <v>249</v>
+      </c>
+      <c r="H10" t="n">
+        <v>53.31</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Danny Littler</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Noah B</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4473</v>
+      </c>
+      <c r="G12" t="n">
+        <v>301</v>
+      </c>
+      <c r="H12" t="n">
+        <v>44.58</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Quintin Marais</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2388</v>
+      </c>
+      <c r="G13" t="n">
+        <v>107</v>
+      </c>
+      <c r="H13" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_TEAL1_TEAL5.xlsx
+++ b/totaalstand_TEAL1_TEAL5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,25 +495,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>17293</v>
+        <v>25029</v>
       </c>
       <c r="G2" t="n">
-        <v>796</v>
+        <v>1154</v>
       </c>
       <c r="H2" t="n">
-        <v>65.17</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -525,29 +525,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>11319</v>
+        <v>16869</v>
       </c>
       <c r="G3" t="n">
-        <v>619</v>
+        <v>799</v>
       </c>
       <c r="H3" t="n">
-        <v>54.86</v>
+        <v>63.34</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -559,11 +559,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13810</v>
+        <v>11319</v>
       </c>
       <c r="G4" t="n">
-        <v>794</v>
+        <v>619</v>
       </c>
       <c r="H4" t="n">
-        <v>52.18</v>
+        <v>54.86</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -593,29 +593,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8568</v>
+        <v>15894</v>
       </c>
       <c r="G5" t="n">
-        <v>401</v>
+        <v>910</v>
       </c>
       <c r="H5" t="n">
-        <v>64.09999999999999</v>
+        <v>52.4</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -661,29 +661,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sion Foulkes</t>
+          <t>Lukas G</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5404</v>
+        <v>9785</v>
       </c>
       <c r="G7" t="n">
-        <v>367</v>
+        <v>545</v>
       </c>
       <c r="H7" t="n">
-        <v>44.17</v>
+        <v>53.86</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -691,15 +691,15 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lukas G</t>
+          <t>Nigel Riedel</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5294</v>
+        <v>9077</v>
       </c>
       <c r="G8" t="n">
-        <v>283</v>
+        <v>541</v>
       </c>
       <c r="H8" t="n">
-        <v>56.12</v>
+        <v>50.33</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,11 +729,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Constantinos Mavroudis</t>
+          <t>Sion Foulkes</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1991</v>
+        <v>6951</v>
       </c>
       <c r="G9" t="n">
-        <v>134</v>
+        <v>454</v>
       </c>
       <c r="H9" t="n">
-        <v>44.57</v>
+        <v>45.93</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -759,33 +759,33 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nigel Riedel</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4425</v>
+        <v>6147</v>
       </c>
       <c r="G10" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="H10" t="n">
-        <v>53.31</v>
+        <v>46.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -797,11 +797,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Danny Littler</t>
+          <t>Aelbrecht Wesley</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -810,14 +810,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2740</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="H11" t="n">
+        <v>41.1</v>
+      </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -825,15 +827,15 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Constantinos Mavroudis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -842,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4473</v>
+        <v>1991</v>
       </c>
       <c r="G12" t="n">
-        <v>301</v>
+        <v>134</v>
       </c>
       <c r="H12" t="n">
-        <v>44.58</v>
+        <v>44.57</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -863,31 +865,131 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Danny Littler</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tristan Snoep</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1193</v>
+      </c>
+      <c r="G14" t="n">
+        <v>96</v>
+      </c>
+      <c r="H14" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Arnold Van Der Vlies</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2362</v>
+      </c>
+      <c r="G15" t="n">
+        <v>167</v>
+      </c>
+      <c r="H15" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Quintin Marais</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2388</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G16" t="n">
         <v>107</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>66.95</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_TEAL1_TEAL5.xlsx
+++ b/totaalstand_TEAL1_TEAL5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -504,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>25029</v>
+        <v>32924</v>
       </c>
       <c r="G2" t="n">
-        <v>1154</v>
+        <v>1557</v>
       </c>
       <c r="H2" t="n">
-        <v>65.06999999999999</v>
+        <v>63.44</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -572,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11319</v>
+        <v>15497</v>
       </c>
       <c r="G4" t="n">
-        <v>619</v>
+        <v>855</v>
       </c>
       <c r="H4" t="n">
-        <v>54.86</v>
+        <v>54.38</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -661,11 +661,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lukas G</t>
+          <t>Nigel Riedel</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -674,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9785</v>
+        <v>11924</v>
       </c>
       <c r="G7" t="n">
-        <v>545</v>
+        <v>681</v>
       </c>
       <c r="H7" t="n">
-        <v>53.86</v>
+        <v>52.53</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -695,11 +695,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nigel Riedel</t>
+          <t>Lukas G</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -708,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9077</v>
+        <v>9785</v>
       </c>
       <c r="G8" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H8" t="n">
-        <v>50.33</v>
+        <v>53.86</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -729,29 +729,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sion Foulkes</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6951</v>
+        <v>8798</v>
       </c>
       <c r="G9" t="n">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="H9" t="n">
-        <v>45.93</v>
+        <v>48.97</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -763,11 +763,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Sion Foulkes</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -776,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6147</v>
+        <v>6951</v>
       </c>
       <c r="G10" t="n">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="H10" t="n">
-        <v>46.1</v>
+        <v>45.93</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -793,15 +793,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aelbrecht Wesley</t>
+          <t>joselito Vanbecelaere</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2740</v>
+        <v>4436</v>
       </c>
       <c r="G11" t="n">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="H11" t="n">
-        <v>41.1</v>
+        <v>45.42</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Constantinos Mavroudis</t>
+          <t>Aelbrecht Wesley</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -844,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1991</v>
+        <v>2740</v>
       </c>
       <c r="G12" t="n">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="H12" t="n">
-        <v>44.57</v>
+        <v>41.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -865,11 +865,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Danny Littler</t>
+          <t>Constantinos Mavroudis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -878,14 +878,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1991</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+        <v>134</v>
+      </c>
+      <c r="H13" t="n">
+        <v>44.57</v>
+      </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -893,11 +895,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Danny Littler</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -910,14 +912,12 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1193</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>96</v>
-      </c>
-      <c r="H14" t="n">
-        <v>37.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>3</v>
       </c>
@@ -927,15 +927,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arnold Van Der Vlies</t>
+          <t>David Wallam</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2362</v>
+        <v>1892</v>
       </c>
       <c r="G15" t="n">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="H15" t="n">
-        <v>42.43</v>
+        <v>41.13</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -961,35 +961,103 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Tristan Snoep</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1193</v>
+      </c>
+      <c r="G16" t="n">
+        <v>96</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Arnold Van Der Vlies</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2362</v>
+      </c>
+      <c r="G17" t="n">
+        <v>167</v>
+      </c>
+      <c r="H17" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Quintin Marais</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2388</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G18" t="n">
         <v>107</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>66.95</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
